--- a/doc/Other/Rabin–Karp算法.xlsx
+++ b/doc/Other/Rabin–Karp算法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960440DF-DD8D-4DA8-958B-F4998FD21E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2175F-EA32-4E2C-9152-6F47B22AC950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17080" xr2:uid="{13EDD5B6-F3D4-4DE7-B34B-6F3CB8E0C8FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>e</t>
   </si>
@@ -769,12 +769,16 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Horner's method 减少乘法运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +949,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1036,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1465,6 +1480,200 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="{\displaystyle {\begin{aligned}p(x)&amp;=a_{0}+a_{1}x+a_{2}x^{2}+a_{3}x^{3}+\cdots +a_{n}x^{n}\\&amp;=a_{0}+x{\bigg (}a_{1}+x{\Big (}a_{2}+x{\big (}a_{3}+\cdots +x(a_{n-1}+x\,a_{n})\cdots {\big )}{\Big )}{\bigg )}\\\end{aligned}}}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E858B276-3644-4CAE-B0BD-6E6938E61A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11607800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="{\displaystyle {\begin{aligned}p(x)&amp;=a_{0}+a_{1}x+a_{2}x^{2}+a_{3}x^{3}+\cdots +a_{n}x^{n}\\&amp;=a_{0}+x{\bigg (}a_{1}+x{\Big (}a_{2}+x{\big (}a_{3}+\cdots +x(a_{n-1}+x\,a_{n})\cdots {\big )}{\Big )}{\bigg )}\\\end{aligned}}}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70665DCF-F96B-423E-8ECE-E3972D1B4420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11607800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="{\displaystyle {\begin{aligned}p(x)&amp;=a_{0}+a_{1}x+a_{2}x^{2}+a_{3}x^{3}+\cdots +a_{n}x^{n}\\&amp;=a_{0}+x{\bigg (}a_{1}+x{\Big (}a_{2}+x{\big (}a_{3}+\cdots +x(a_{n-1}+x\,a_{n})\cdots {\big )}{\Big )}{\bigg )}\\\end{aligned}}}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D881DC5D-6FBC-4B12-A3C4-62E40D8C351B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11607800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2826D24C-F0BF-463F-ADDE-2FD74B3C207E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11607800"/>
+          <a:ext cx="9639076" cy="1416050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1765,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA4E69-887D-479B-A8DA-4EE2591DFE9C}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" x14ac:dyDescent="0.3"/>
@@ -2452,6 +2661,11 @@
       </c>
       <c r="U27" s="29"/>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:AA1"/>
